--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2098444.454616919</v>
+        <v>2095902.823023239</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283199</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>140.7094048023554</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>37.11181591693564</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>77.97021545617319</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>36.39469600159732</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>80.55694192497894</v>
+        <v>66.44208389990435</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.6017262668675</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349.2299344537557</v>
       </c>
       <c r="E5" t="n">
-        <v>349.2299344537554</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>349.2299344537554</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2299344537554</v>
+        <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969024</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>180.2305285014401</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2299344537557</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>20.17138038922456</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419596</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612056</v>
+        <v>2.433127121188811</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.535779957332</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>34.26303176781975</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0459277863393</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>199.6452357812547</v>
       </c>
       <c r="Y8" t="n">
-        <v>94.21942166122362</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110028</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>21.21812042899047</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085811335</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.05856366754386</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520956</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,10 +1664,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>41.33703994142962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826188967</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.39152647956271</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184402</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>68.17501931583779</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
-        <v>130.5513683573768</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.1376433238293</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358272</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272868</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.60082661159695</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057049</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3983,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>245.879692121441</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>74.53917159609351</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>596.4915365985764</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="C2" t="n">
-        <v>596.4915365985764</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="D2" t="n">
-        <v>407.0717515820916</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656067</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201475</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201475</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201475</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="U2" t="n">
-        <v>596.4915365985764</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="V2" t="n">
-        <v>596.4915365985764</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="W2" t="n">
-        <v>596.4915365985764</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="X2" t="n">
-        <v>596.4915365985764</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="Y2" t="n">
-        <v>596.4915365985764</v>
+        <v>351.3361714764006</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>722.9192922843283</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4662630032013</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>399.5318533419501</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>240.2943983364946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>93.75984036337954</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>93.75984036337954</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843283</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843283</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843283</v>
+        <v>409.399488203391</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843283</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843283</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843283</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843283</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.9192922843283</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.8921302232408</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="C4" t="n">
-        <v>289.8921302232408</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="D4" t="n">
-        <v>289.8921302232408</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="E4" t="n">
-        <v>141.9790366408477</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="F4" t="n">
-        <v>141.9790366408477</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="G4" t="n">
-        <v>141.9790366408477</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830975</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777544</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608024</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652801</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652801</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="T4" t="n">
-        <v>560.6825636487953</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="U4" t="n">
-        <v>371.2627786323104</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="V4" t="n">
-        <v>289.8921302232408</v>
+        <v>359.4053378805172</v>
       </c>
       <c r="W4" t="n">
-        <v>289.8921302232408</v>
+        <v>359.4053378805172</v>
       </c>
       <c r="X4" t="n">
-        <v>289.8921302232408</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="Y4" t="n">
-        <v>289.8921302232408</v>
+        <v>169.9855528640325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1086.210923404044</v>
+        <v>714.6122027118934</v>
       </c>
       <c r="C5" t="n">
-        <v>1086.210923404044</v>
+        <v>714.6122027118934</v>
       </c>
       <c r="D5" t="n">
-        <v>1086.210923404044</v>
+        <v>361.854693162645</v>
       </c>
       <c r="E5" t="n">
-        <v>733.4534138547964</v>
+        <v>361.854693162645</v>
       </c>
       <c r="F5" t="n">
-        <v>380.6959043055484</v>
+        <v>354.9091924134416</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630044</v>
+        <v>342.2443073217436</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874597</v>
+        <v>80.99020340874631</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620533</v>
+        <v>211.2396305620537</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458666</v>
+        <v>409.7273242458671</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973828</v>
+        <v>662.2525653973837</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365748</v>
+        <v>923.4777373365761</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477533</v>
+        <v>1156.809998477534</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169735</v>
+        <v>1321.452684169736</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815022</v>
+        <v>1249.420751151485</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815022</v>
+        <v>1249.420751151485</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815022</v>
+        <v>1249.420751151485</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815022</v>
+        <v>1067.369712261142</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815022</v>
+        <v>1067.369712261142</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.919737815022</v>
+        <v>1067.369712261142</v>
       </c>
       <c r="Y5" t="n">
-        <v>1396.919737815022</v>
+        <v>714.6122027118934</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.17226479005853</v>
+        <v>187.175849761756</v>
       </c>
       <c r="C6" t="n">
-        <v>66.7971330837711</v>
+        <v>187.175849761756</v>
       </c>
       <c r="D6" t="n">
-        <v>66.7971330837711</v>
+        <v>187.175849761756</v>
       </c>
       <c r="E6" t="n">
-        <v>66.7971330837711</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="F6" t="n">
-        <v>66.7971330837711</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="G6" t="n">
-        <v>66.7971330837711</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="H6" t="n">
-        <v>66.7971330837711</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143071</v>
+        <v>40.71784159143079</v>
       </c>
       <c r="K6" t="n">
-        <v>332.4282120100546</v>
+        <v>140.7147764379371</v>
       </c>
       <c r="L6" t="n">
-        <v>513.2089724545668</v>
+        <v>321.4955368824495</v>
       </c>
       <c r="M6" t="n">
-        <v>743.5284611879785</v>
+        <v>551.8150256158613</v>
       </c>
       <c r="N6" t="n">
-        <v>994.3524663668828</v>
+        <v>802.6390307947657</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459966</v>
+        <v>1148.376665903984</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.57905898395</v>
+        <v>1348.579058983951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308343</v>
+        <v>1394.462033652206</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308343</v>
+        <v>1248.796558224289</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308343</v>
+        <v>1052.632151947301</v>
       </c>
       <c r="U6" t="n">
-        <v>1160.388865740558</v>
+        <v>1052.632151947301</v>
       </c>
       <c r="V6" t="n">
-        <v>925.2367575088149</v>
+        <v>817.4800437155584</v>
       </c>
       <c r="W6" t="n">
-        <v>670.9994007806133</v>
+        <v>563.2426869873568</v>
       </c>
       <c r="X6" t="n">
-        <v>463.1479005750805</v>
+        <v>355.391186781824</v>
       </c>
       <c r="Y6" t="n">
-        <v>255.3876018101266</v>
+        <v>355.391186781824</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>196.8745776842073</v>
+        <v>324.9449816665465</v>
       </c>
       <c r="C7" t="n">
-        <v>27.93839475630044</v>
+        <v>324.9449816665465</v>
       </c>
       <c r="D7" t="n">
-        <v>27.93839475630044</v>
+        <v>174.8283422542108</v>
       </c>
       <c r="E7" t="n">
-        <v>27.93839475630044</v>
+        <v>174.8283422542108</v>
       </c>
       <c r="F7" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="G7" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="H7" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="K7" t="n">
-        <v>148.523310587469</v>
+        <v>148.5233105874691</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208639</v>
+        <v>358.3569215208641</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014273</v>
+        <v>589.9861665014276</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750247</v>
+        <v>821.542402175025</v>
       </c>
       <c r="O7" t="n">
         <v>1019.405768767886</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612031</v>
+        <v>1165.191378612032</v>
       </c>
       <c r="Q7" t="n">
         <v>1182.690698049272</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049272</v>
+        <v>1059.927283950957</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049272</v>
+        <v>1059.927283950957</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049272</v>
+        <v>835.0311720137612</v>
       </c>
       <c r="U7" t="n">
-        <v>893.5478801556803</v>
+        <v>835.0311720137612</v>
       </c>
       <c r="V7" t="n">
-        <v>638.8633919497935</v>
+        <v>580.3466838078743</v>
       </c>
       <c r="W7" t="n">
-        <v>349.4462219128329</v>
+        <v>545.7375608100766</v>
       </c>
       <c r="X7" t="n">
-        <v>196.8745776842073</v>
+        <v>545.7375608100766</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.8745776842073</v>
+        <v>324.9449816665465</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.12525314008</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y8" t="n">
-        <v>1201.12525314008</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4881,28 +4881,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2546.853055059249</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.823040066908</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>838.1385518610207</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,16 +5054,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400644</v>
+        <v>695.5020655703102</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>695.5020655703102</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>545.3854261579744</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>397.4723325755813</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853354</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.06254548756</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510501</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854699</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648812</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611852</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138343</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703041</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="14">
@@ -5267,52 +5267,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191923</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349509</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061502</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616109</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650321</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.1522880254209</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429812</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,10 +6014,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,22 +6127,22 @@
         <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>449.4852666057155</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4852666057155</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>449.4852666057155</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,10 +6476,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138431</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,19 +7491,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797763</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510506</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,19 +8137,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>152.8089368603737</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>74.60115408961754</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898947</v>
+        <v>41.92993463898941</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.6499349213309</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>139.9014828445803</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>53.74845207675091</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>138.9393975111061</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>36.58048154589929</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405145</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.36248435538738</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>107.2784330767827</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610416</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.44045370237458</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472515</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>72.1196935303861</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
-        <v>34.972769934892</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194089</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685121</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404978</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333223</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>6.257951202386977</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>211.9838267404975</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840134.0879475148</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="15">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.284775254</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
@@ -26335,7 +26335,7 @@
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
@@ -26344,13 +26344,13 @@
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427112</v>
+        <v>178997.5061427118</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731209</v>
+        <v>301519.8707731207</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245454</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267262</v>
+        <v>41617.52445267278</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019548</v>
+        <v>73739.30240019552</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806969</v>
+        <v>229588.1389806968</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979383</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26430,25 +26430,25 @@
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184276</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184281</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
@@ -26457,7 +26457,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029176</v>
+        <v>69851.97930029177</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-330558.2682115673</v>
+        <v>-330558.2682115666</v>
       </c>
       <c r="C6" t="n">
-        <v>116817.6587279058</v>
+        <v>116817.6587279052</v>
       </c>
       <c r="D6" t="n">
-        <v>55642.40924070118</v>
+        <v>55642.40924070144</v>
       </c>
       <c r="E6" t="n">
-        <v>-37033.49478504122</v>
+        <v>-37068.23271047707</v>
       </c>
       <c r="F6" t="n">
-        <v>470451.9468395044</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="G6" t="n">
-        <v>470451.9468395046</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="H6" t="n">
-        <v>470451.9468395043</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="I6" t="n">
-        <v>470451.9468395046</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="J6" t="n">
-        <v>421387.0021109599</v>
+        <v>421352.2641855242</v>
       </c>
       <c r="K6" t="n">
-        <v>428834.422386832</v>
+        <v>428799.6844613961</v>
       </c>
       <c r="L6" t="n">
-        <v>396712.644439309</v>
+        <v>396677.9065138733</v>
       </c>
       <c r="M6" t="n">
-        <v>337844.6531105778</v>
+        <v>337809.9151851422</v>
       </c>
       <c r="N6" t="n">
-        <v>470451.9468395045</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="O6" t="n">
-        <v>470451.9468395046</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="P6" t="n">
-        <v>470451.9468395046</v>
+        <v>470417.2089140689</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955701</v>
+        <v>687.6696919955704</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537554</v>
+        <v>349.2299344537557</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26823,13 +26823,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,37 +26957,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826653</v>
+        <v>139.1997510826658</v>
       </c>
       <c r="D3" t="n">
-        <v>246.395200121969</v>
+        <v>246.3952001219687</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874354</v>
+        <v>161.7043472874358</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462833</v>
+        <v>291.3548976462831</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874352</v>
+        <v>161.7043472874358</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462832</v>
+        <v>291.3548976462828</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874354</v>
+        <v>161.7043472874358</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462833</v>
+        <v>291.3548976462831</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>110.4598557626749</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>290.6404425531993</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>22.8715418945665</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>215.3002871593223</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378006</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713025</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>171.580701398849</v>
+        <v>185.6955594239237</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271729</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.13211539661307</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>5.453107166927225</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850633</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795599</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>63.30830178702556</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397888</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>103.8974541908713</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969024</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27673,7 +27673,7 @@
         <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>147.5217299686948</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>37.00800420229785</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>152.5371185990912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>97.95007950277716</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419594</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>5.888365900423203</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
@@ -27795,7 +27795,7 @@
         <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
-        <v>5.68693102405723</v>
+        <v>5.686931024057202</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.535779957332</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>252.2599665687713</v>
       </c>
       <c r="X7" t="n">
-        <v>74.66372760269789</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>170.0858648972143</v>
       </c>
       <c r="Y8" t="n">
-        <v>292.01851699483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546889</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>265.0090336922102</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,13 +28138,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-6.127246858037931e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29964,7 +29964,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-5.456214517326002e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30432,7 +30432,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -30703,13 +30703,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>-3.694951207129925e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354048</v>
+        <v>2.76450127435405</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597841</v>
+        <v>28.31194867597842</v>
       </c>
       <c r="I5" t="n">
         <v>106.5784353795346</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342071</v>
+        <v>234.6335900342072</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776141</v>
+        <v>351.6549289776142</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526269</v>
+        <v>436.2590348526271</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904207</v>
+        <v>485.4222343904208</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361792</v>
+        <v>493.2768736361793</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893211</v>
+        <v>465.7873640893212</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787054</v>
+        <v>397.5387388787056</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.535036990901</v>
+        <v>298.5350369909011</v>
       </c>
       <c r="R5" t="n">
         <v>173.6556031751427</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934295</v>
+        <v>62.99607278934297</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848485</v>
+        <v>12.10160432848486</v>
       </c>
       <c r="U5" t="n">
         <v>0.2211601019483239</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782924</v>
+        <v>1.479138582782925</v>
       </c>
       <c r="H6" t="n">
         <v>14.2853647337193</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721912</v>
+        <v>50.92648190721913</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233639</v>
+        <v>139.746158823364</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698199</v>
+        <v>238.84844386982</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117047</v>
+        <v>321.1612085117048</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375856</v>
+        <v>374.7799821375858</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721256</v>
+        <v>384.6992930721257</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536198</v>
+        <v>351.9246960536199</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122937</v>
+        <v>282.4505948122938</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022554</v>
+        <v>188.8107426022555</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103108</v>
+        <v>91.83634113103112</v>
       </c>
       <c r="S6" t="n">
         <v>27.47435043020036</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603102</v>
+        <v>5.961966480603103</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0973117488672977</v>
+        <v>0.09731174886729774</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.24006010031988</v>
+        <v>1.240060100319881</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920767</v>
+        <v>11.02526161920768</v>
       </c>
       <c r="I7" t="n">
-        <v>37.2919891987106</v>
+        <v>37.29198919871061</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261554</v>
+        <v>87.67224909261557</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098915</v>
+        <v>144.0724371098916</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966484</v>
+        <v>184.3631170966485</v>
       </c>
       <c r="M7" t="n">
         <v>194.3850573619609</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698596</v>
+        <v>189.7630151698597</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433955</v>
+        <v>175.2768585433956</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968698</v>
+        <v>149.9796324968699</v>
       </c>
       <c r="Q7" t="n">
         <v>103.8381234913311</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983752</v>
+        <v>55.75761141983754</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648373</v>
+        <v>21.61086556648374</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457669</v>
+        <v>5.298438610457671</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562993</v>
+        <v>0.06763964183562994</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>595.3275373121719</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,16 +32081,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319862</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,13 +32099,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305202</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,10 +32789,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>168.9203199809852</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>75.94151139701812</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752086</v>
+        <v>53.58768550752094</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326335</v>
+        <v>131.5650779326337</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826397</v>
+        <v>200.4926198826398</v>
       </c>
       <c r="M5" t="n">
-        <v>255.076001163148</v>
+        <v>255.0760011631481</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395883</v>
+        <v>263.8638100395884</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676344</v>
+        <v>235.6891526676345</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234359</v>
+        <v>166.3057431234361</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645152</v>
+        <v>76.22934711645158</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669725</v>
+        <v>12.90853215669731</v>
       </c>
       <c r="K6" t="n">
-        <v>294.6569398167918</v>
+        <v>101.007004895461</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318305</v>
+        <v>182.6068287318307</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155673</v>
+        <v>232.6459482155675</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887923</v>
+        <v>253.3575809887924</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091753</v>
+        <v>349.2299344537557</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979635</v>
+        <v>202.2246394747145</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623391</v>
+        <v>48.82896851623397</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,19 +35100,19 @@
         <v>211.9531423569646</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238014</v>
+        <v>233.9689343238015</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490882</v>
+        <v>233.8951875490883</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574352</v>
+        <v>199.8619864574353</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617633</v>
+        <v>147.2581917617634</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.6760802396367</v>
+        <v>17.67608023963673</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35261,19 +35261,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>388.6189266346383</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.64270034434938</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288386</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060391</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875417</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561612</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899085</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317105</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191332</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
